--- a/report/templates/xlsx/template.xlsx
+++ b/report/templates/xlsx/template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmondal00/PycharmProjects/product_sku_report/product_sku_report/product_sku_report/product_sku_report/templates/xlsx/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmondal00/PycharmProjects/product_sku_report/product_sku_report/report/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4678BF-B848-5246-9833-7F45762B9E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8273FE4F-3979-4749-A4EC-0A6BC3E69788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Data!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Product ID</t>
   </si>
@@ -65,6 +65,12 @@
   </si>
   <si>
     <t>Item Commitment</t>
+  </si>
+  <si>
+    <t>Vendor ID</t>
+  </si>
+  <si>
+    <t>Vendor Name</t>
   </si>
 </sst>
 </file>
@@ -413,76 +419,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" customWidth="1"/>
-    <col min="9" max="9" width="12" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.83203125" customWidth="1"/>
-    <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="37.33203125" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.6640625" customWidth="1"/>
+    <col min="13" max="13" width="13.83203125" customWidth="1"/>
     <col min="14" max="14" width="14.6640625" customWidth="1"/>
+    <col min="15" max="15" width="18.1640625" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/report/templates/xlsx/template.xlsx
+++ b/report/templates/xlsx/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rmondal00/PycharmProjects/product_sku_report/product_sku_report/report/templates/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8273FE4F-3979-4749-A4EC-0A6BC3E69788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2CD173E-8FC2-4049-B49F-AE4882262DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -439,9 +439,9 @@
     <col min="10" max="10" width="37.33203125" customWidth="1"/>
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="10.6640625" customWidth="1"/>
-    <col min="13" max="13" width="13.83203125" customWidth="1"/>
-    <col min="14" max="14" width="14.6640625" customWidth="1"/>
-    <col min="15" max="15" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.1640625" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" customWidth="1"/>
     <col min="16" max="16" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -483,13 +483,13 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="P1" s="1" t="s">
         <v>12</v>
